--- a/TestAutomation_UI_API/src/test/resources/testData.xlsx
+++ b/TestAutomation_UI_API/src/test/resources/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Personal/ELearning/Elearning_Eclipse_Workspace/UI_API_Automation/TestAutomation_UI_API/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67BE660-02E8-6C44-8D3A-9FFA05099002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB3C07C-FC0D-8C4F-AFC6-463477D4FB94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40500" yWindow="1580" windowWidth="27640" windowHeight="16940" xr2:uid="{BE91F89F-BEDD-334C-9E70-29773751B716}"/>
+    <workbookView xWindow="1860" yWindow="700" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{BE91F89F-BEDD-334C-9E70-29773751B716}"/>
   </bookViews>
   <sheets>
     <sheet name="addToCartPhones" sheetId="1" r:id="rId1"/>
+    <sheet name="addPetToStore" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>product_category</t>
   </si>
@@ -46,13 +47,46 @@
   </si>
   <si>
     <t>Phones</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>availablityStatus</t>
+  </si>
+  <si>
+    <t>goofy</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>snoofy</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>not available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +113,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,11 +140,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213B5A51-582A-C048-A1E4-BE3C392DD7AF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -450,4 +496,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F957C73-A98D-ED44-AE4C-84C0BCB1E509}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>